--- a/data_science.xlsx
+++ b/data_science.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Server\NutsCloud\data_science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xushaojie/Documents/NutsCloud/data_science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F854645-46D4-4898-B23D-C1D31F7E4BC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8DCA21-9B02-6A4C-8EC1-69ACB3ADB649}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="11460" activeTab="1" xr2:uid="{FE257B1E-4CF1-B449-A444-125C23C2FB09}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{FE257B1E-4CF1-B449-A444-125C23C2FB09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="85">
   <si>
     <t>分值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,15 +226,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IF TaCA ≥3 且 TaCA &lt; 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IF TaCA ≥5</t>
-  </si>
-  <si>
-    <t>IF TaCA ≥5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IF ES = "Full Time"</t>
@@ -368,7 +360,7 @@
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,19 +410,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -446,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -673,21 +652,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -697,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,6 +770,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,15 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8179,20 +8137,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9CF6BA-0295-7A45-B659-BC49B697865D}">
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="23.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11" ht="23" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8216,7 +8174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="19" customHeight="1">
       <c r="B3" s="8">
         <f>B4+Sheet2!$Z$7</f>
         <v>80</v>
@@ -8246,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="19" customHeight="1">
       <c r="B4" s="9">
         <f>B5+Sheet2!$Z$7</f>
         <v>70</v>
@@ -8276,7 +8234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="19" customHeight="1">
       <c r="B5" s="9">
         <f>B6+Sheet2!$Z$7</f>
         <v>60</v>
@@ -8306,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="19" customHeight="1">
       <c r="B6" s="34">
         <f>Sheet2!Z6</f>
         <v>50</v>
@@ -8336,7 +8294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="19" customHeight="1">
       <c r="B7" s="9">
         <f>B6-Sheet2!$Z$7</f>
         <v>40</v>
@@ -8366,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="19" customHeight="1">
       <c r="B8" s="9">
         <f>B7-Sheet2!$Z$7</f>
         <v>30</v>
@@ -8396,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="19" customHeight="1">
       <c r="B9" s="9">
         <f>B8-Sheet2!$Z$7</f>
         <v>20</v>
@@ -8426,7 +8384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="19" customHeight="1" thickBot="1">
       <c r="B10" s="10">
         <f>B9-Sheet2!$Z$7</f>
         <v>10</v>
@@ -8456,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="19" customHeight="1">
       <c r="E11" s="2"/>
       <c r="H11" s="2">
         <v>27</v>
@@ -8471,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="H12" s="2">
         <v>28</v>
       </c>
@@ -8485,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="H13" s="2">
         <v>29</v>
       </c>
@@ -8499,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="H14" s="2">
         <v>30</v>
       </c>
@@ -8513,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="H15" s="2">
         <v>33</v>
       </c>
@@ -8527,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="H16" s="2">
         <v>34</v>
       </c>
@@ -8541,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:11">
       <c r="H17" s="2">
         <v>35</v>
       </c>
@@ -8555,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:11">
       <c r="H18" s="2">
         <v>36</v>
       </c>
@@ -8569,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:11">
       <c r="H19" s="2">
         <v>37</v>
       </c>
@@ -8583,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:11">
       <c r="H20" s="2">
         <v>38</v>
       </c>
@@ -8597,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:11">
       <c r="H21" s="2">
         <v>48</v>
       </c>
@@ -8611,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:11">
       <c r="H22" s="2">
         <v>49</v>
       </c>
@@ -8625,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:11">
       <c r="H23" s="2">
         <v>50</v>
       </c>
@@ -8639,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:11">
       <c r="H24" s="2">
         <v>51</v>
       </c>
@@ -8653,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:11">
       <c r="H25" s="2">
         <v>52</v>
       </c>
@@ -8667,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:11">
       <c r="H26" s="2">
         <v>53</v>
       </c>
@@ -8681,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:11">
       <c r="H27" s="2">
         <v>56</v>
       </c>
@@ -8695,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:11">
       <c r="H28" s="2">
         <v>57</v>
       </c>
@@ -8709,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:11">
       <c r="H29" s="2">
         <v>58</v>
       </c>
@@ -8723,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:11">
       <c r="H30" s="2">
         <v>59</v>
       </c>
@@ -8737,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:11">
       <c r="H31" s="2">
         <v>60</v>
       </c>
@@ -8751,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:11">
       <c r="H32" s="2">
         <v>61</v>
       </c>
@@ -8776,45 +8734,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0CBA35-6D5E-9C44-85C5-CBED5BAA450E}">
   <dimension ref="A2:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="5" width="10.875" style="2"/>
+    <col min="1" max="5" width="10.83203125" style="2"/>
     <col min="6" max="6" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.875" style="2"/>
+    <col min="7" max="7" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="2"/>
     <col min="12" max="12" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="10.875" style="2"/>
-    <col min="25" max="25" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="10.83203125" style="2"/>
+    <col min="25" max="25" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.875" style="2"/>
-    <col min="29" max="29" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.83203125" style="2"/>
+    <col min="29" max="29" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.875" style="2"/>
-    <col min="32" max="32" width="11.125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="26.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="10.83203125" style="2"/>
+    <col min="32" max="32" width="11.1640625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="26.1640625" style="2" customWidth="1"/>
     <col min="34" max="34" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.875" style="2" customWidth="1"/>
-    <col min="39" max="39" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.83203125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="10.875" style="2"/>
+    <col min="43" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8828,13 +8786,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
@@ -8855,13 +8813,13 @@
         <v>8</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="17" thickBot="1">
       <c r="A3" s="2">
         <v>19</v>
       </c>
@@ -8875,10 +8833,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -8899,15 +8857,15 @@
       <c r="S3" s="1"/>
       <c r="T3" s="14">
         <f t="shared" ref="T3:T32" si="0">VLOOKUP(F3,$L$7:$Q$11,6,FALSE)</f>
-        <v>0.3979400086720376</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="U3" s="14">
-        <f>VLOOKUP(G3,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" ref="U3:U32" si="1">VLOOKUP(G3,$L$12:$Q$14,6,FALSE)</f>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V3" s="14">
-        <f>VLOOKUP(H3,$L$15:$Q$17,6,FALSE)</f>
-        <v>0.36797678529459443</v>
+        <f t="shared" ref="V3:V32" si="2">VLOOKUP(H3,$L$15:$Q$17,6,FALSE)</f>
+        <v>0.84729786038720367</v>
       </c>
       <c r="W3" s="2">
         <v>1</v>
@@ -8921,11 +8879,11 @@
       </c>
       <c r="AC3" s="13">
         <f>$Z$19+$Z$16*T3+$Z$17*U3+$Z$18*V3</f>
-        <v>0.14476247240990575</v>
+        <v>1.5352635867822118</v>
       </c>
       <c r="AD3" s="13">
         <f>EXP(AC3)/(1+EXP(AC3))</f>
-        <v>0.53612754886241731</v>
+        <v>0.82277513491802823</v>
       </c>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
@@ -8939,7 +8897,7 @@
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -8953,10 +8911,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -8978,15 +8936,15 @@
       <c r="S4" s="1"/>
       <c r="T4" s="14">
         <f t="shared" si="0"/>
-        <v>0.3979400086720376</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="U4" s="14">
-        <f>VLOOKUP(G4,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V4" s="14">
-        <f>VLOOKUP(H4,$L$15:$Q$17,6,FALSE)</f>
-        <v>0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>0.84729786038720367</v>
       </c>
       <c r="W4" s="2">
         <v>1</v>
@@ -8999,12 +8957,12 @@
         <v>1</v>
       </c>
       <c r="AC4" s="13">
-        <f t="shared" ref="AC4:AC32" si="1">$Z$19+$Z$16*T4+$Z$17*U4+$Z$18*V4</f>
-        <v>0.14476247240990575</v>
+        <f t="shared" ref="AC4:AC32" si="3">$Z$19+$Z$16*T4+$Z$17*U4+$Z$18*V4</f>
+        <v>1.5352635867822118</v>
       </c>
       <c r="AD4" s="13">
-        <f t="shared" ref="AD4:AD32" si="2">EXP(AC4)/(1+EXP(AC4))</f>
-        <v>0.53612754886241731</v>
+        <f t="shared" ref="AD4:AD32" si="4">EXP(AC4)/(1+EXP(AC4))</f>
+        <v>0.82277513491802823</v>
       </c>
       <c r="AF4" s="20" t="s">
         <v>37</v>
@@ -9024,7 +8982,7 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43">
       <c r="A5" s="2">
         <v>21</v>
       </c>
@@ -9038,10 +8996,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
@@ -9053,15 +9011,15 @@
       <c r="S5" s="1"/>
       <c r="T5" s="14">
         <f t="shared" si="0"/>
-        <v>0.3979400086720376</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="U5" s="14">
-        <f>VLOOKUP(G5,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V5" s="14">
-        <f>VLOOKUP(H5,$L$15:$Q$17,6,FALSE)</f>
-        <v>0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>0.84729786038720367</v>
       </c>
       <c r="W5" s="2">
         <v>1</v>
@@ -9074,14 +9032,14 @@
         <v>1</v>
       </c>
       <c r="AC5" s="13">
-        <f t="shared" si="1"/>
-        <v>0.14476247240990575</v>
+        <f t="shared" si="3"/>
+        <v>1.5352635867822118</v>
       </c>
       <c r="AD5" s="13">
-        <f t="shared" si="2"/>
-        <v>0.53612754886241731</v>
-      </c>
-      <c r="AF5" s="36" t="s">
+        <f t="shared" si="4"/>
+        <v>0.82277513491802823</v>
+      </c>
+      <c r="AF5" s="37" t="s">
         <v>3</v>
       </c>
       <c r="AG5" s="17" t="s">
@@ -9089,15 +9047,15 @@
       </c>
       <c r="AH5" s="24">
         <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$16*Q7)</f>
-        <v>1.9092060916362206</v>
+        <v>-8.5330871990972437</v>
       </c>
       <c r="AI5" s="28">
         <f>($Z$11-$Z$10*$Z$19)</f>
-        <v>6.7374381998997066</v>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AJ5" s="28">
         <f>($Z$10*$Z$16*Q7)</f>
-        <v>4.828232108263486</v>
+        <v>15.458075754312516</v>
       </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
@@ -9106,7 +9064,7 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43">
       <c r="A6" s="2">
         <v>22</v>
       </c>
@@ -9120,10 +9078,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
@@ -9135,7 +9093,7 @@
         <v>37</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>16</v>
@@ -9158,15 +9116,15 @@
       <c r="S6" s="1"/>
       <c r="T6" s="14">
         <f t="shared" si="0"/>
-        <v>0.3979400086720376</v>
-      </c>
-      <c r="U6" s="14" t="e">
-        <f>VLOOKUP(G6,$L$12:$Q$14,6,FALSE)</f>
-        <v>#NUM!</v>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="U6" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0986122886681098</v>
       </c>
       <c r="V6" s="14">
-        <f>VLOOKUP(H6,$L$15:$Q$17,6,FALSE)</f>
-        <v>0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>0.84729786038720367</v>
       </c>
       <c r="W6" s="2">
         <v>1</v>
@@ -9182,29 +9140,29 @@
       <c r="AB6" s="2">
         <v>1</v>
       </c>
-      <c r="AC6" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD6" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF6" s="37"/>
+      <c r="AC6" s="13">
+        <f t="shared" si="3"/>
+        <v>2.0462674419771836</v>
+      </c>
+      <c r="AD6" s="13">
+        <f t="shared" si="4"/>
+        <v>0.88556992083899344</v>
+      </c>
+      <c r="AF6" s="38"/>
       <c r="AG6" s="18" t="s">
         <v>42</v>
       </c>
       <c r="AH6" s="25">
         <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$16*Q8)</f>
-        <v>0.94849486328991262</v>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AI6" s="28">
-        <f t="shared" ref="AI6:AI16" si="3">($Z$11-$Z$10*$Z$19)</f>
-        <v>6.7374381998997066</v>
+        <f t="shared" ref="AI6:AI16" si="5">($Z$11-$Z$10*$Z$19)</f>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AJ6" s="28">
         <f>($Z$10*$Z$16*Q8)</f>
-        <v>5.788943336609794</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
@@ -9214,7 +9172,7 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="A7" s="2">
         <v>23</v>
       </c>
@@ -9228,10 +9186,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
@@ -9242,44 +9200,45 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>79</v>
+      <c r="L7" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="M7" s="2">
         <f>COUNTIFS($F$3:$F$32,"="&amp;L7)</f>
         <v>7</v>
       </c>
       <c r="N7" s="2">
-        <v>5</v>
+        <f>SUMIFS($I$3:$I$32,$F$3:$F$32,"="&amp;L7)</f>
+        <v>6</v>
       </c>
       <c r="O7" s="2">
         <f>M7-N7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="2">
         <f>N7/O7</f>
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="14">
-        <f>LOG(P7/$P$4)</f>
-        <v>0.3979400086720376</v>
+        <f>LN(P7/$P$4)</f>
+        <v>1.791759469228055</v>
       </c>
       <c r="R7" s="14">
         <f>(N7/$N$4-O7/$O$4)*Q7</f>
-        <v>7.9588001734407512E-2</v>
+        <v>0.59725315640935173</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="14">
         <f t="shared" si="0"/>
-        <v>0.3979400086720376</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="U7" s="14">
-        <f>VLOOKUP(G7,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V7" s="14">
-        <f>VLOOKUP(H7,$L$15:$Q$17,6,FALSE)</f>
-        <v>0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>0.84729786038720367</v>
       </c>
       <c r="W7" s="2">
         <v>1</v>
@@ -9295,31 +9254,31 @@
         <v>1</v>
       </c>
       <c r="AC7" s="13">
-        <f t="shared" si="1"/>
-        <v>0.14476247240990575</v>
+        <f t="shared" si="3"/>
+        <v>1.5352635867822118</v>
       </c>
       <c r="AD7" s="13">
-        <f t="shared" si="2"/>
-        <v>0.53612754886241731</v>
-      </c>
-      <c r="AF7" s="37"/>
+        <f t="shared" si="4"/>
+        <v>0.82277513491802823</v>
+      </c>
+      <c r="AF7" s="38"/>
       <c r="AG7" s="18" t="s">
         <v>46</v>
       </c>
       <c r="AH7" s="25">
         <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$16*Q9)</f>
-        <v>12.526381536509501</v>
+        <v>16.403064309527785</v>
       </c>
       <c r="AI7" s="28">
-        <f t="shared" si="3"/>
-        <v>6.7374381998997066</v>
+        <f t="shared" si="5"/>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AJ7" s="28">
         <f>($Z$10*$Z$16*Q9)</f>
-        <v>-5.788943336609794</v>
+        <v>-9.4780757543125151</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="A8" s="2">
         <v>24</v>
       </c>
@@ -9333,10 +9292,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -9347,44 +9306,45 @@
       <c r="K8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>83</v>
+      <c r="L8" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" ref="M8:M11" si="4">COUNTIFS($F$3:$F$32,"="&amp;L8)</f>
+        <f t="shared" ref="M8:M11" si="6">COUNTIFS($F$3:$F$32,"="&amp;L8)</f>
         <v>4</v>
       </c>
       <c r="N8" s="2">
-        <v>3</v>
+        <f t="shared" ref="N8:N12" si="7">SUMIFS($I$3:$I$32,$F$3:$F$32,"="&amp;L8)</f>
+        <v>2</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" ref="O8:O11" si="5">M8-N8</f>
+        <f t="shared" ref="O8:O11" si="8">M8-N8</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" ref="P8:P9" si="9">N8/O8</f>
         <v>1</v>
       </c>
-      <c r="P8" s="2">
-        <f t="shared" ref="P8:P9" si="6">N8/O8</f>
-        <v>3</v>
-      </c>
       <c r="Q8" s="2">
-        <f t="shared" ref="Q8:Q11" si="7">LOG(P8/$P$4)</f>
-        <v>0.47712125471966244</v>
+        <f>LN(P8/$P$4)</f>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" ref="R8:R11" si="8">(N8/$N$4-O8/$O$4)*Q8</f>
-        <v>6.3616167295954998E-2</v>
+        <f t="shared" ref="R8:R11" si="10">(N8/$N$4-O8/$O$4)*Q8</f>
+        <v>0</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="14">
         <f t="shared" si="0"/>
-        <v>0.3979400086720376</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="U8" s="14">
-        <f>VLOOKUP(G8,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.12493873660829995</v>
+        <f t="shared" si="1"/>
+        <v>-1.791759469228055</v>
       </c>
       <c r="V8" s="14">
-        <f>VLOOKUP(H8,$L$15:$Q$17,6,FALSE)</f>
-        <v>0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>0.84729786038720367</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
@@ -9401,31 +9361,31 @@
         <v>0</v>
       </c>
       <c r="AC8" s="13">
-        <f t="shared" si="1"/>
-        <v>0.4341153990809653</v>
+        <f t="shared" si="3"/>
+        <v>0.15307394055519552</v>
       </c>
       <c r="AD8" s="13">
-        <f t="shared" si="2"/>
-        <v>0.60685595834979433</v>
-      </c>
-      <c r="AF8" s="37"/>
+        <f t="shared" si="4"/>
+        <v>0.53819393539669214</v>
+      </c>
+      <c r="AF8" s="38"/>
       <c r="AG8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="AH8" s="25">
         <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$16*Q10)</f>
-        <v>12.526381536509501</v>
+        <v>16.403064309527785</v>
       </c>
       <c r="AI8" s="28">
-        <f t="shared" si="3"/>
-        <v>6.7374381998997066</v>
+        <f t="shared" si="5"/>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AJ8" s="28">
         <f>($Z$10*$Z$16*Q10)</f>
-        <v>-5.788943336609794</v>
+        <v>-9.4780757543125151</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="A9" s="2">
         <v>25</v>
       </c>
@@ -9439,10 +9399,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>11</v>
@@ -9453,44 +9413,45 @@
       <c r="K9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>84</v>
+      <c r="L9" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="N9" s="2">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="P9" s="2">
-        <f t="shared" si="6"/>
+      <c r="P9" s="14">
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q9" s="14">
-        <f t="shared" si="7"/>
-        <v>-0.47712125471966244</v>
+        <f>LN(P9/$P$4)</f>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="R9" s="14">
-        <f t="shared" si="8"/>
-        <v>6.3616167295954998E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.14648163848908133</v>
       </c>
       <c r="S9" s="1"/>
-      <c r="T9" s="2">
+      <c r="T9" s="14">
         <f t="shared" si="0"/>
-        <v>0.3979400086720376</v>
+        <v>1.791759469228055</v>
       </c>
       <c r="U9" s="14">
-        <f>VLOOKUP(G9,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V9" s="14">
-        <f>VLOOKUP(H9,$L$15:$Q$17,6,FALSE)</f>
-        <v>0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>0.84729786038720367</v>
       </c>
       <c r="W9" s="2">
         <v>1</v>
@@ -9501,31 +9462,31 @@
         <v>1</v>
       </c>
       <c r="AC9" s="13">
-        <f t="shared" si="1"/>
-        <v>0.14476247240990575</v>
+        <f t="shared" si="3"/>
+        <v>1.5352635867822118</v>
       </c>
       <c r="AD9" s="13">
-        <f t="shared" si="2"/>
-        <v>0.53612754886241731</v>
-      </c>
-      <c r="AF9" s="38"/>
+        <f t="shared" si="4"/>
+        <v>0.82277513491802823</v>
+      </c>
+      <c r="AF9" s="39"/>
       <c r="AG9" s="15" t="s">
         <v>43</v>
       </c>
       <c r="AH9" s="26">
         <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$16*Q11)</f>
-        <v>5.2215483508968052</v>
+        <v>4.4430643095277862</v>
       </c>
       <c r="AI9" s="28">
-        <f t="shared" si="3"/>
-        <v>6.7374381998997066</v>
+        <f t="shared" si="5"/>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AJ9" s="28">
         <f>($Z$10*$Z$16*Q11)</f>
-        <v>1.5158898490029016</v>
+        <v>2.4819242456874857</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43">
       <c r="A10" s="2">
         <v>26</v>
       </c>
@@ -9539,10 +9500,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
@@ -9553,44 +9514,45 @@
       <c r="K10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>85</v>
+      <c r="L10" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="N10" s="2">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="P10" s="2">
-        <f t="shared" ref="P10:P11" si="9">N10/O10</f>
+      <c r="P10" s="14">
+        <f t="shared" ref="P10:P11" si="11">N10/O10</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="Q10" s="14">
-        <f t="shared" si="7"/>
-        <v>-0.47712125471966244</v>
+        <f t="shared" ref="Q10:Q17" si="12">LN(P10/$P$4)</f>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" si="8"/>
-        <v>0.12723233459191</v>
+        <f t="shared" si="10"/>
+        <v>0.29296327697816266</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="2">
         <f t="shared" si="0"/>
-        <v>0.47712125471966244</v>
+        <v>0</v>
       </c>
       <c r="U10" s="14">
-        <f>VLOOKUP(G10,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V10" s="14">
-        <f>VLOOKUP(H10,$L$15:$Q$17,6,FALSE)</f>
-        <v>0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>0.84729786038720367</v>
       </c>
       <c r="W10" s="2">
         <v>1</v>
@@ -9607,33 +9569,33 @@
         <v>1</v>
       </c>
       <c r="AC10" s="13">
-        <f t="shared" si="1"/>
-        <v>0.21135390033595824</v>
+        <f t="shared" si="3"/>
+        <v>0.4637914241838349</v>
       </c>
       <c r="AD10" s="13">
-        <f t="shared" si="2"/>
-        <v>0.55264265647023492</v>
-      </c>
-      <c r="AF10" s="37" t="s">
+        <f t="shared" si="4"/>
+        <v>0.61391322103819645</v>
+      </c>
+      <c r="AF10" s="38" t="s">
         <v>5</v>
       </c>
       <c r="AG10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AH10" s="25" t="e">
+      <c r="AH10" s="25">
         <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$17*Q12)</f>
-        <v>#NUM!</v>
+        <v>-3.456515824508303</v>
       </c>
       <c r="AI10" s="28">
-        <f t="shared" si="3"/>
-        <v>6.7374381998997066</v>
-      </c>
-      <c r="AJ10" s="28" t="e">
+        <f t="shared" si="5"/>
+        <v>6.9249885552152719</v>
+      </c>
+      <c r="AJ10" s="28">
         <f>($Z$10*$Z$17*Q12)</f>
-        <v>#NUM!</v>
+        <v>10.381504379723575</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43">
       <c r="A11" s="2">
         <v>27</v>
       </c>
@@ -9647,10 +9609,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>
@@ -9661,44 +9623,45 @@
       <c r="K11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>86</v>
+      <c r="L11" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="N11" s="2">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="P11" s="2">
-        <f t="shared" si="9"/>
+      <c r="P11" s="14">
+        <f t="shared" si="11"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Q11" s="14">
-        <f t="shared" si="7"/>
-        <v>0.12493873660829993</v>
+        <f t="shared" si="12"/>
+        <v>0.28768207245178085</v>
       </c>
       <c r="R11" s="14">
-        <f t="shared" si="8"/>
-        <v>8.3292491072199937E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.9178804830118718E-2</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="2">
         <f t="shared" si="0"/>
-        <v>0.47712125471966244</v>
+        <v>0</v>
       </c>
       <c r="U11" s="14">
-        <f>VLOOKUP(G11,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V11" s="14">
-        <f>VLOOKUP(H11,$L$15:$Q$17,6,FALSE)</f>
-        <v>-0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>-0.84729786038720367</v>
       </c>
       <c r="W11" s="2">
         <v>1</v>
@@ -9715,31 +9678,31 @@
         <v>1</v>
       </c>
       <c r="AC11" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.20593177418811182</v>
+        <f t="shared" si="3"/>
+        <v>-6.6617036418554626E-2</v>
       </c>
       <c r="AD11" s="13">
-        <f t="shared" si="2"/>
-        <v>0.44869822845409174</v>
-      </c>
-      <c r="AF11" s="37"/>
+        <f t="shared" si="4"/>
+        <v>0.48335189722688754</v>
+      </c>
+      <c r="AF11" s="38"/>
       <c r="AG11" s="19" t="s">
         <v>50</v>
       </c>
       <c r="AH11" s="25">
         <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$17*Q13)</f>
-        <v>12.530550015213308</v>
+        <v>3.9157114531409749</v>
       </c>
       <c r="AI11" s="28">
-        <f t="shared" si="3"/>
-        <v>6.7374381998997066</v>
+        <f t="shared" si="5"/>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AJ11" s="28">
         <f>($Z$10*$Z$17*Q13)</f>
-        <v>-5.7931118153136003</v>
+        <v>3.009277102074297</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43">
       <c r="A12" s="2">
         <v>28</v>
       </c>
@@ -9753,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>9</v>
@@ -9767,43 +9730,44 @@
       <c r="K12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>81</v>
+      <c r="L12" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="M12" s="2">
         <f>COUNTIFS($G$3:$G$32,"="&amp;L12)</f>
         <v>4</v>
       </c>
       <c r="N12" s="2">
-        <v>6</v>
+        <f>SUMIFS($I$3:$I$32,$G$3:$G$32,"="&amp;L12)</f>
+        <v>3</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" ref="O12:O17" si="10">M12-N12</f>
-        <v>-2</v>
+        <f t="shared" ref="O12:O17" si="13">M12-N12</f>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
         <f>N12/O12</f>
-        <v>-3</v>
-      </c>
-      <c r="Q12" s="14" t="e">
-        <f>LOG(P12/$P$4)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R12" s="14" t="e">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="12"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="R12" s="14">
         <f>(N12/$N$4-O12/$O$4)*Q12</f>
-        <v>#NUM!</v>
+        <v>0.14648163848908133</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" si="0"/>
-        <v>0.47712125471966244</v>
+        <v>0</v>
       </c>
       <c r="U12" s="14">
-        <f>VLOOKUP(G12,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V12" s="14">
-        <f>VLOOKUP(H12,$L$15:$Q$17,6,FALSE)</f>
-        <v>-0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>-0.84729786038720367</v>
       </c>
       <c r="W12" s="2">
         <v>0</v>
@@ -9813,31 +9777,31 @@
         <v>0</v>
       </c>
       <c r="AC12" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.20593177418811182</v>
+        <f t="shared" si="3"/>
+        <v>-6.6617036418554626E-2</v>
       </c>
       <c r="AD12" s="13">
-        <f t="shared" si="2"/>
-        <v>0.44869822845409174</v>
-      </c>
-      <c r="AF12" s="37"/>
+        <f t="shared" si="4"/>
+        <v>0.48335189722688754</v>
+      </c>
+      <c r="AF12" s="38"/>
       <c r="AG12" s="19" t="s">
         <v>51</v>
       </c>
       <c r="AH12" s="25">
         <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$17*Q14)</f>
-        <v>8.3560696914628529</v>
+        <v>23.856492934938846</v>
       </c>
       <c r="AI12" s="28">
-        <f t="shared" si="3"/>
-        <v>6.7374381998997066</v>
+        <f t="shared" si="5"/>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AJ12" s="28">
         <f>($Z$10*$Z$17*Q14)</f>
-        <v>-1.6186314915631459</v>
+        <v>-16.931504379723574</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43">
       <c r="A13" s="2">
         <v>29</v>
       </c>
@@ -9851,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>9</v>
@@ -9865,80 +9829,70 @@
       <c r="K13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>80</v>
+      <c r="L13" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" ref="M13:M14" si="11">COUNTIFS($G$3:$G$32,"="&amp;L13)</f>
+        <f t="shared" ref="M13:M14" si="14">COUNTIFS($G$3:$G$32,"="&amp;L13)</f>
         <v>19</v>
       </c>
       <c r="N13" s="2">
-        <v>5</v>
+        <f t="shared" ref="N13:N14" si="15">SUMIFS($I$3:$I$32,$G$3:$G$32,"="&amp;L13)</f>
+        <v>11</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="10"/>
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="P13" s="14">
-        <f t="shared" ref="P13:P14" si="12">N13/O13</f>
-        <v>0.35714285714285715</v>
+        <f t="shared" ref="P13:P14" si="16">N13/O13</f>
+        <v>1.375</v>
       </c>
       <c r="Q13" s="14">
-        <f t="shared" ref="Q13:Q14" si="13">LOG(P13/$P$4)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="12"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="R13" s="14">
-        <f t="shared" ref="R13:R14" si="14">(N13/$N$4-O13/$O$4)*Q13</f>
-        <v>0.26829481880533157</v>
+        <f t="shared" ref="R13:R14" si="17">(N13/$N$4-O13/$O$4)*Q13</f>
+        <v>6.3690746223706907E-2</v>
       </c>
       <c r="T13" s="2">
         <f t="shared" si="0"/>
-        <v>0.47712125471966244</v>
+        <v>0</v>
       </c>
       <c r="U13" s="14">
-        <f>VLOOKUP(G13,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V13" s="14">
-        <f>VLOOKUP(H13,$L$15:$Q$17,6,FALSE)</f>
-        <v>-0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>-0.84729786038720367</v>
       </c>
       <c r="W13" s="2">
         <v>0</v>
       </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB13" s="2">
         <v>0</v>
       </c>
       <c r="AC13" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.20593177418811182</v>
+        <f t="shared" si="3"/>
+        <v>-6.6617036418554626E-2</v>
       </c>
       <c r="AD13" s="13">
-        <f t="shared" si="2"/>
-        <v>0.44869822845409174</v>
-      </c>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH13" s="25" t="e">
-        <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$17*#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI13" s="28">
-        <f t="shared" si="3"/>
-        <v>6.7374381998997066</v>
-      </c>
-      <c r="AJ13" s="28" t="e">
-        <f>($Z$10*$Z$17*#REF!)</f>
-        <v>#REF!</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0.48335189722688754</v>
+      </c>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43">
       <c r="A14" s="2">
         <v>30</v>
       </c>
@@ -9952,10 +9906,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>9</v>
@@ -9966,82 +9920,83 @@
       <c r="K14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>82</v>
+      <c r="L14" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="N14" s="2">
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="P14" s="2">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" si="16"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q14" s="14">
         <f t="shared" si="12"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q14" s="14">
-        <f t="shared" si="13"/>
-        <v>-0.12493873660829995</v>
+        <v>-1.791759469228055</v>
       </c>
       <c r="R14" s="14">
-        <f t="shared" si="14"/>
-        <v>8.3292491072199954E-3</v>
-      </c>
-      <c r="T14" s="2">
+        <f t="shared" si="17"/>
+        <v>0.59725315640935173</v>
+      </c>
+      <c r="T14" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U14" s="14">
-        <f>VLOOKUP(G14,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V14" s="14">
-        <f>VLOOKUP(H14,$L$15:$Q$17,6,FALSE)</f>
-        <v>-0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>-0.84729786038720367</v>
       </c>
       <c r="W14" s="2">
         <v>0</v>
       </c>
       <c r="X14" s="14"/>
       <c r="Y14" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AB14" s="2">
         <v>0</v>
       </c>
       <c r="AC14" s="13">
-        <f t="shared" si="1"/>
-        <v>-1.008449724626584</v>
+        <f t="shared" si="3"/>
+        <v>-0.7235871850420843</v>
       </c>
       <c r="AD14" s="13">
-        <f t="shared" si="2"/>
-        <v>0.26728335172528062</v>
-      </c>
-      <c r="AF14" s="36" t="s">
+        <f t="shared" si="4"/>
+        <v>0.32660354997211538</v>
+      </c>
+      <c r="AF14" s="37" t="s">
         <v>7</v>
       </c>
       <c r="AG14" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AH14" s="24">
         <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$18*Q15)</f>
-        <v>9.7475180662491159</v>
+        <v>10.751076833998354</v>
       </c>
       <c r="AI14" s="28">
-        <f t="shared" si="3"/>
-        <v>6.7374381998997066</v>
+        <f t="shared" si="5"/>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AJ14" s="28">
         <f>($Z$10*$Z$18*Q15)</f>
-        <v>-3.0100798663494093</v>
+        <v>-3.8260882787830828</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43">
       <c r="A15" s="2">
         <v>33</v>
       </c>
@@ -10055,10 +10010,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>9</v>
@@ -10069,7 +10024,7 @@
       <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M15" s="2">
@@ -10080,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="P15" s="14">
@@ -10088,61 +10043,61 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="Q15" s="14">
-        <f>LOG(P15/$P$4)</f>
-        <v>-0.36797678529459443</v>
+        <f t="shared" si="12"/>
+        <v>-0.84729786038720367</v>
       </c>
       <c r="R15" s="14">
         <f>(N15/$N$4-O15/$O$4)*Q15</f>
-        <v>9.8127142745225188E-2</v>
+        <v>0.22594609610325431</v>
       </c>
       <c r="T15" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U15" s="14">
-        <f>VLOOKUP(G15,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.12493873660829995</v>
+        <f t="shared" si="1"/>
+        <v>-1.791759469228055</v>
       </c>
       <c r="V15" s="14">
-        <f>VLOOKUP(H15,$L$15:$Q$17,6,FALSE)</f>
-        <v>-0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>-0.84729786038720367</v>
       </c>
       <c r="W15" s="2">
         <v>1</v>
       </c>
       <c r="X15" s="14"/>
       <c r="Y15" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB15" s="2">
         <v>1</v>
       </c>
       <c r="AC15" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.7190967979555245</v>
+        <f t="shared" si="3"/>
+        <v>-2.1057768312691003</v>
       </c>
       <c r="AD15" s="13">
-        <f t="shared" si="2"/>
-        <v>0.32759190517841502</v>
-      </c>
-      <c r="AF15" s="37"/>
+        <f t="shared" si="4"/>
+        <v>0.10853661040143198</v>
+      </c>
+      <c r="AF15" s="38"/>
       <c r="AG15" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AH15" s="25">
         <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$18*Q16)</f>
-        <v>6.7374381998997066</v>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AI15" s="28">
-        <f t="shared" si="3"/>
-        <v>6.7374381998997066</v>
+        <f t="shared" si="5"/>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AJ15" s="28">
         <f>($Z$10*$Z$18*Q16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" ht="17" thickBot="1">
       <c r="A16" s="2">
         <v>34</v>
       </c>
@@ -10156,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>9</v>
@@ -10170,43 +10125,43 @@
       <c r="K16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" ref="M16:M17" si="15">COUNTIFS($H$3:$H$32,"="&amp;L16)</f>
+        <f t="shared" ref="M16:M17" si="18">COUNTIFS($H$3:$H$32,"="&amp;L16)</f>
         <v>10</v>
       </c>
       <c r="N16" s="2">
         <v>5</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" ref="P16:P17" si="16">N16/O16</f>
+        <f t="shared" ref="P16:P17" si="19">N16/O16</f>
         <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:Q17" si="17">LOG(P16/$P$4)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" ref="R16:R17" si="18">(N16/$N$4-O16/$O$4)*Q16</f>
+        <f t="shared" ref="R16:R17" si="20">(N16/$N$4-O16/$O$4)*Q16</f>
         <v>0</v>
       </c>
       <c r="T16" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U16" s="14">
-        <f>VLOOKUP(G16,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.12493873660829995</v>
+        <f t="shared" si="1"/>
+        <v>-1.791759469228055</v>
       </c>
       <c r="V16" s="14">
-        <f>VLOOKUP(H16,$L$15:$Q$17,6,FALSE)</f>
-        <v>-0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>-0.84729786038720367</v>
       </c>
       <c r="W16" s="2">
         <v>0</v>
@@ -10216,37 +10171,37 @@
         <v>36</v>
       </c>
       <c r="Z16" s="2">
-        <v>0.84099999999999997</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="AB16" s="2">
         <v>0</v>
       </c>
       <c r="AC16" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.7190967979555245</v>
+        <f t="shared" si="3"/>
+        <v>-2.1057768312691003</v>
       </c>
       <c r="AD16" s="13">
-        <f t="shared" si="2"/>
-        <v>0.32759190517841502</v>
-      </c>
-      <c r="AF16" s="39"/>
+        <f t="shared" si="4"/>
+        <v>0.10853661040143198</v>
+      </c>
+      <c r="AF16" s="40"/>
       <c r="AG16" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AH16" s="27">
         <f>($Z$11-$Z$10*$Z$19)-($Z$10*$Z$18*Q17)</f>
-        <v>3.7273583335502973</v>
+        <v>3.0989002764321891</v>
       </c>
       <c r="AI16" s="28">
-        <f t="shared" si="3"/>
-        <v>6.7374381998997066</v>
+        <f t="shared" si="5"/>
+        <v>6.9249885552152719</v>
       </c>
       <c r="AJ16" s="28">
         <f>($Z$10*$Z$18*Q17)</f>
-        <v>3.0100798663494093</v>
+        <v>3.8260882787830828</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34">
       <c r="A17" s="2">
         <v>35</v>
       </c>
@@ -10260,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>11</v>
@@ -10274,43 +10229,43 @@
       <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="N17" s="2">
         <v>7</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P17" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="Q17" s="14">
-        <f t="shared" si="17"/>
-        <v>0.36797678529459443</v>
+        <f t="shared" si="12"/>
+        <v>0.84729786038720367</v>
       </c>
       <c r="R17" s="14">
-        <f t="shared" si="18"/>
-        <v>9.8127142745225188E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.22594609610325431</v>
       </c>
       <c r="T17" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U17" s="14">
-        <f>VLOOKUP(G17,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.12493873660829995</v>
+        <f t="shared" si="1"/>
+        <v>-1.791759469228055</v>
       </c>
       <c r="V17" s="14">
-        <f>VLOOKUP(H17,$L$15:$Q$17,6,FALSE)</f>
-        <v>0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>0.84729786038720367</v>
       </c>
       <c r="W17" s="2">
         <v>0</v>
@@ -10320,22 +10275,22 @@
         <v>35</v>
       </c>
       <c r="Z17" s="2">
-        <v>0.89800000000000002</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="AB17" s="2">
         <v>0</v>
       </c>
       <c r="AC17" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.30181112343145444</v>
+        <f t="shared" si="3"/>
+        <v>-1.5753683706667108</v>
       </c>
       <c r="AD17" s="13">
-        <f t="shared" si="2"/>
-        <v>0.42511479881776792</v>
+        <f t="shared" si="4"/>
+        <v>0.17145243419542339</v>
       </c>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34">
       <c r="A18" s="2">
         <v>36</v>
       </c>
@@ -10349,10 +10304,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>11</v>
@@ -10363,15 +10318,15 @@
       <c r="R18" s="1"/>
       <c r="T18" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U18" s="14">
-        <f>VLOOKUP(G18,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.12493873660829995</v>
+        <f t="shared" si="1"/>
+        <v>-1.791759469228055</v>
       </c>
       <c r="V18" s="14">
-        <f>VLOOKUP(H18,$L$15:$Q$17,6,FALSE)</f>
-        <v>0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>0.84729786038720367</v>
       </c>
       <c r="W18" s="2">
         <v>0</v>
@@ -10381,22 +10336,22 @@
         <v>34</v>
       </c>
       <c r="Z18" s="2">
-        <v>0.56699999999999995</v>
+        <v>0.313</v>
       </c>
       <c r="AB18" s="2">
         <v>0</v>
       </c>
       <c r="AC18" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.30181112343145444</v>
+        <f t="shared" si="3"/>
+        <v>-1.5753683706667108</v>
       </c>
       <c r="AD18" s="13">
-        <f t="shared" si="2"/>
-        <v>0.42511479881776792</v>
+        <f t="shared" si="4"/>
+        <v>0.17145243419542339</v>
       </c>
       <c r="AG18" s="11"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34">
       <c r="A19" s="2">
         <v>37</v>
       </c>
@@ -10410,10 +10365,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -10422,28 +10377,28 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="T19" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U19" s="14">
-        <f>VLOOKUP(G19,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.12493873660829995</v>
+        <f t="shared" si="1"/>
+        <v>-1.791759469228055</v>
       </c>
       <c r="V19" s="14">
-        <f>VLOOKUP(H19,$L$15:$Q$17,6,FALSE)</f>
-        <v>-0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>-0.84729786038720367</v>
       </c>
       <c r="W19" s="2">
         <v>0</v>
@@ -10453,26 +10408,26 @@
         <v>33</v>
       </c>
       <c r="Z19" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="AB19" s="2">
         <v>0</v>
       </c>
       <c r="AC19" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.7190967979555245</v>
+        <f t="shared" si="3"/>
+        <v>-2.1057768312691003</v>
       </c>
       <c r="AD19" s="13">
-        <f t="shared" si="2"/>
-        <v>0.32759190517841502</v>
-      </c>
-      <c r="AF19" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
+        <f t="shared" si="4"/>
+        <v>0.10853661040143198</v>
+      </c>
+      <c r="AF19" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34">
       <c r="A20" s="2">
         <v>38</v>
       </c>
@@ -10486,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>9</v>
@@ -10514,19 +10469,19 @@
       </c>
       <c r="R20" s="14">
         <f>SUM(R7:R11)</f>
-        <v>0.34238192002544754</v>
+        <v>1.0558768767067144</v>
       </c>
       <c r="T20" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U20" s="14">
-        <f>VLOOKUP(G20,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.12493873660829995</v>
+        <f t="shared" si="1"/>
+        <v>-1.791759469228055</v>
       </c>
       <c r="V20" s="14">
-        <f>VLOOKUP(H20,$L$15:$Q$17,6,FALSE)</f>
-        <v>-0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>-0.84729786038720367</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
@@ -10536,24 +10491,24 @@
         <v>0</v>
       </c>
       <c r="AC20" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.7190967979555245</v>
+        <f t="shared" si="3"/>
+        <v>-2.1057768312691003</v>
       </c>
       <c r="AD20" s="13">
-        <f t="shared" si="2"/>
-        <v>0.32759190517841502</v>
+        <f t="shared" si="4"/>
+        <v>0.10853661040143198</v>
       </c>
       <c r="AF20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AG20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH20" s="2" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34">
       <c r="A21" s="2">
         <v>48</v>
       </c>
@@ -10567,10 +10522,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>9</v>
@@ -10587,27 +10542,27 @@
       </c>
       <c r="N21" s="2">
         <f>SUM(N12:N14)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O21" s="2">
         <f>SUM(O12:O14)</f>
-        <v>16</v>
-      </c>
-      <c r="R21" s="14" t="e">
+        <v>15</v>
+      </c>
+      <c r="R21" s="14">
         <f>SUM(R12:R14)</f>
-        <v>#NUM!</v>
+        <v>0.80742554112213993</v>
       </c>
       <c r="T21" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U21" s="14">
-        <f>VLOOKUP(G21,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V21" s="14">
-        <f>VLOOKUP(H21,$L$15:$Q$17,6,FALSE)</f>
-        <v>-0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>-0.84729786038720367</v>
       </c>
       <c r="W21" s="2">
         <v>1</v>
@@ -10617,12 +10572,12 @@
         <v>1</v>
       </c>
       <c r="AC21" s="13">
-        <f t="shared" si="1"/>
-        <v>-1.008449724626584</v>
+        <f t="shared" si="3"/>
+        <v>-0.7235871850420843</v>
       </c>
       <c r="AD21" s="13">
-        <f t="shared" si="2"/>
-        <v>0.26728335172528062</v>
+        <f t="shared" si="4"/>
+        <v>0.32660354997211538</v>
       </c>
       <c r="AF21" s="2" t="s">
         <v>3</v>
@@ -10632,10 +10587,10 @@
       </c>
       <c r="AH21" s="29">
         <f>VLOOKUP(AG21,$AG$5:$AH$16,2,FALSE)</f>
-        <v>12.526381536509501</v>
+        <v>16.403064309527785</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34">
       <c r="A22" s="2">
         <v>49</v>
       </c>
@@ -10649,10 +10604,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>13</v>
@@ -10677,18 +10632,18 @@
       </c>
       <c r="R22" s="14">
         <f>SUM(R15:R17)</f>
-        <v>0.19625428549045038</v>
+        <v>0.45189219220650861</v>
       </c>
       <c r="T22" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U22" s="14">
-        <f>VLOOKUP(G22,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V22" s="2">
-        <f>VLOOKUP(H22,$L$15:$Q$17,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W22" s="2">
@@ -10698,25 +10653,25 @@
         <v>1</v>
       </c>
       <c r="AC22" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.79980688736454897</v>
+        <f t="shared" si="3"/>
+        <v>-0.45838295474088953</v>
       </c>
       <c r="AD22" s="13">
-        <f t="shared" si="2"/>
-        <v>0.31006682905302757</v>
+        <f t="shared" si="4"/>
+        <v>0.38736950197670383</v>
       </c>
       <c r="AF22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AG22" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH22" s="29" t="e">
-        <f t="shared" ref="AH22:AH23" si="19">VLOOKUP(AG22,$AG$5:$AH$16,2,FALSE)</f>
-        <v>#REF!</v>
+        <v>51</v>
+      </c>
+      <c r="AH22" s="29">
+        <f t="shared" ref="AH22:AH23" si="21">VLOOKUP(AG22,$AG$5:$AH$16,2,FALSE)</f>
+        <v>23.856492934938846</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34">
       <c r="A23" s="2">
         <v>50</v>
       </c>
@@ -10730,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>9</v>
@@ -10743,15 +10698,15 @@
       </c>
       <c r="T23" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U23" s="14">
-        <f>VLOOKUP(G23,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V23" s="14">
-        <f>VLOOKUP(H23,$L$15:$Q$17,6,FALSE)</f>
-        <v>-0.36797678529459443</v>
+        <f t="shared" si="2"/>
+        <v>-0.84729786038720367</v>
       </c>
       <c r="W23" s="2">
         <v>0</v>
@@ -10761,25 +10716,25 @@
         <v>0</v>
       </c>
       <c r="AC23" s="13">
-        <f t="shared" si="1"/>
-        <v>-1.008449724626584</v>
+        <f t="shared" si="3"/>
+        <v>-0.7235871850420843</v>
       </c>
       <c r="AD23" s="13">
-        <f t="shared" si="2"/>
-        <v>0.26728335172528062</v>
+        <f t="shared" si="4"/>
+        <v>0.32660354997211538</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AG23" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH23" s="29">
-        <f t="shared" si="19"/>
-        <v>9.7475180662491159</v>
+        <f t="shared" si="21"/>
+        <v>10.751076833998354</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34">
       <c r="A24" s="2">
         <v>51</v>
       </c>
@@ -10793,10 +10748,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>13</v>
@@ -10806,14 +10761,14 @@
       </c>
       <c r="T24" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U24" s="14">
-        <f>VLOOKUP(G24,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V24" s="2">
-        <f>VLOOKUP(H24,$L$15:$Q$17,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W24" s="2">
@@ -10823,22 +10778,22 @@
         <v>0</v>
       </c>
       <c r="AC24" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.79980688736454897</v>
+        <f t="shared" si="3"/>
+        <v>-0.45838295474088953</v>
       </c>
       <c r="AD24" s="13">
-        <f t="shared" si="2"/>
-        <v>0.31006682905302757</v>
+        <f t="shared" si="4"/>
+        <v>0.38736950197670383</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH24" s="29" t="e">
+        <v>60</v>
+      </c>
+      <c r="AH24" s="29">
         <f>SUM(AH21:AH23)</f>
-        <v>#REF!</v>
+        <v>51.010634078464989</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34">
       <c r="A25" s="2">
         <v>52</v>
       </c>
@@ -10852,10 +10807,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>13</v>
@@ -10865,14 +10820,14 @@
       </c>
       <c r="T25" s="14">
         <f t="shared" si="0"/>
-        <v>-0.47712125471966244</v>
+        <v>-1.0986122886681098</v>
       </c>
       <c r="U25" s="14">
-        <f>VLOOKUP(G25,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V25" s="2">
-        <f>VLOOKUP(H25,$L$15:$Q$17,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25" s="2">
@@ -10882,15 +10837,15 @@
         <v>0</v>
       </c>
       <c r="AC25" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.79980688736454897</v>
+        <f t="shared" si="3"/>
+        <v>-0.45838295474088953</v>
       </c>
       <c r="AD25" s="13">
-        <f t="shared" si="2"/>
-        <v>0.31006682905302757</v>
+        <f t="shared" si="4"/>
+        <v>0.38736950197670383</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34">
       <c r="A26" s="2">
         <v>53</v>
       </c>
@@ -10904,10 +10859,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>13</v>
@@ -10917,14 +10872,14 @@
       </c>
       <c r="T26" s="14">
         <f t="shared" si="0"/>
-        <v>0.12493873660829993</v>
+        <v>0.28768207245178085</v>
       </c>
       <c r="U26" s="14">
-        <f>VLOOKUP(G26,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V26" s="2">
-        <f>VLOOKUP(H26,$L$15:$Q$17,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26" s="2">
@@ -10934,20 +10889,20 @@
         <v>0</v>
       </c>
       <c r="AC26" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.29347443465773265</v>
+        <f t="shared" si="3"/>
+        <v>0.37062107320880511</v>
       </c>
       <c r="AD26" s="13">
-        <f t="shared" si="2"/>
-        <v>0.42715348151449112</v>
-      </c>
-      <c r="AF26" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
+        <f t="shared" si="4"/>
+        <v>0.59160904308722295</v>
+      </c>
+      <c r="AF26" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34">
       <c r="A27" s="2">
         <v>56</v>
       </c>
@@ -10961,10 +10916,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>13</v>
@@ -10974,14 +10929,14 @@
       </c>
       <c r="T27" s="14">
         <f t="shared" si="0"/>
-        <v>0.12493873660829993</v>
-      </c>
-      <c r="U27" s="14" t="e">
-        <f>VLOOKUP(G27,$L$12:$Q$14,6,FALSE)</f>
-        <v>#NUM!</v>
+        <v>0.28768207245178085</v>
+      </c>
+      <c r="U27" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0986122886681098</v>
       </c>
       <c r="V27" s="2">
-        <f>VLOOKUP(H27,$L$15:$Q$17,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W27" s="2">
@@ -10990,25 +10945,25 @@
       <c r="AB27" s="2">
         <v>1</v>
       </c>
-      <c r="AC27" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD27" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
+      <c r="AC27" s="13">
+        <f t="shared" si="3"/>
+        <v>0.88162492840377693</v>
+      </c>
+      <c r="AD27" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7071588329818107</v>
       </c>
       <c r="AF27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AG27" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH27" s="2" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34">
       <c r="A28" s="2">
         <v>57</v>
       </c>
@@ -11022,10 +10977,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>13</v>
@@ -11035,14 +10990,14 @@
       </c>
       <c r="T28" s="14">
         <f t="shared" si="0"/>
-        <v>0.12493873660829993</v>
+        <v>0.28768207245178085</v>
       </c>
       <c r="U28" s="14">
-        <f>VLOOKUP(G28,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V28" s="2">
-        <f>VLOOKUP(H28,$L$15:$Q$17,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W28" s="2">
@@ -11052,12 +11007,12 @@
         <v>1</v>
       </c>
       <c r="AC28" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.29347443465773265</v>
+        <f t="shared" si="3"/>
+        <v>0.37062107320880511</v>
       </c>
       <c r="AD28" s="13">
-        <f t="shared" si="2"/>
-        <v>0.42715348151449112</v>
+        <f t="shared" si="4"/>
+        <v>0.59160904308722295</v>
       </c>
       <c r="AF28" s="2" t="s">
         <v>3</v>
@@ -11067,10 +11022,10 @@
       </c>
       <c r="AH28" s="29">
         <f>VLOOKUP(AG28,$AG$5:$AH$16,2,FALSE)</f>
-        <v>1.9092060916362206</v>
+        <v>-8.5330871990972437</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34">
       <c r="A29" s="2">
         <v>58</v>
       </c>
@@ -11084,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>13</v>
@@ -11097,14 +11052,14 @@
       </c>
       <c r="T29" s="14">
         <f t="shared" si="0"/>
-        <v>0.12493873660829993</v>
-      </c>
-      <c r="U29" s="14" t="e">
-        <f>VLOOKUP(G29,$L$12:$Q$14,6,FALSE)</f>
-        <v>#NUM!</v>
+        <v>0.28768207245178085</v>
+      </c>
+      <c r="U29" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0986122886681098</v>
       </c>
       <c r="V29" s="2">
-        <f>VLOOKUP(H29,$L$15:$Q$17,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W29" s="2">
@@ -11113,13 +11068,13 @@
       <c r="AB29" s="2">
         <v>1</v>
       </c>
-      <c r="AC29" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD29" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
+      <c r="AC29" s="13">
+        <f t="shared" si="3"/>
+        <v>0.88162492840377693</v>
+      </c>
+      <c r="AD29" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7071588329818107</v>
       </c>
       <c r="AF29" s="2" t="s">
         <v>5</v>
@@ -11127,12 +11082,12 @@
       <c r="AG29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AH29" s="29" t="e">
-        <f t="shared" ref="AH29:AH30" si="20">VLOOKUP(AG29,$AG$5:$AH$16,2,FALSE)</f>
-        <v>#NUM!</v>
+      <c r="AH29" s="29">
+        <f t="shared" ref="AH29:AH30" si="22">VLOOKUP(AG29,$AG$5:$AH$16,2,FALSE)</f>
+        <v>-3.456515824508303</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34">
       <c r="A30" s="2">
         <v>59</v>
       </c>
@@ -11146,10 +11101,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>13</v>
@@ -11159,14 +11114,14 @@
       </c>
       <c r="T30" s="14">
         <f t="shared" si="0"/>
-        <v>0.12493873660829993</v>
+        <v>0.28768207245178085</v>
       </c>
       <c r="U30" s="14">
-        <f>VLOOKUP(G30,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V30" s="2">
-        <f>VLOOKUP(H30,$L$15:$Q$17,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W30" s="2">
@@ -11176,25 +11131,25 @@
         <v>1</v>
       </c>
       <c r="AC30" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.29347443465773265</v>
+        <f t="shared" si="3"/>
+        <v>0.37062107320880511</v>
       </c>
       <c r="AD30" s="13">
-        <f t="shared" si="2"/>
-        <v>0.42715348151449112</v>
+        <f t="shared" si="4"/>
+        <v>0.59160904308722295</v>
       </c>
       <c r="AF30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AG30" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH30" s="29">
-        <f t="shared" si="20"/>
-        <v>3.7273583335502973</v>
+        <f t="shared" si="22"/>
+        <v>3.0989002764321891</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34">
       <c r="A31" s="2">
         <v>60</v>
       </c>
@@ -11208,10 +11163,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>13</v>
@@ -11221,14 +11176,14 @@
       </c>
       <c r="T31" s="14">
         <f t="shared" si="0"/>
-        <v>0.12493873660829993</v>
-      </c>
-      <c r="U31" s="14" t="e">
-        <f>VLOOKUP(G31,$L$12:$Q$14,6,FALSE)</f>
-        <v>#NUM!</v>
+        <v>0.28768207245178085</v>
+      </c>
+      <c r="U31" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0986122886681098</v>
       </c>
       <c r="V31" s="2">
-        <f>VLOOKUP(H31,$L$15:$Q$17,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W31" s="2">
@@ -11237,23 +11192,23 @@
       <c r="AB31" s="2">
         <v>0</v>
       </c>
-      <c r="AC31" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AD31" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
+      <c r="AC31" s="13">
+        <f t="shared" si="3"/>
+        <v>0.88162492840377693</v>
+      </c>
+      <c r="AD31" s="13">
+        <f t="shared" si="4"/>
+        <v>0.7071588329818107</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH31" s="29" t="e">
+        <v>60</v>
+      </c>
+      <c r="AH31" s="29">
         <f>SUM(AH28:AH30)</f>
-        <v>#NUM!</v>
+        <v>-8.8907027471733571</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34">
       <c r="A32" s="2">
         <v>61</v>
       </c>
@@ -11267,10 +11222,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>13</v>
@@ -11280,14 +11235,14 @@
       </c>
       <c r="T32" s="14">
         <f t="shared" si="0"/>
-        <v>0.12493873660829993</v>
+        <v>0.28768207245178085</v>
       </c>
       <c r="U32" s="14">
-        <f>VLOOKUP(G32,$L$12:$Q$14,6,FALSE)</f>
-        <v>-0.44715803134221921</v>
+        <f t="shared" si="1"/>
+        <v>0.31845373111853459</v>
       </c>
       <c r="V32" s="2">
-        <f>VLOOKUP(H32,$L$15:$Q$17,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W32" s="2">
@@ -11297,33 +11252,33 @@
         <v>0</v>
       </c>
       <c r="AC32" s="13">
-        <f t="shared" si="1"/>
-        <v>-0.29347443465773265</v>
+        <f t="shared" si="3"/>
+        <v>0.37062107320880511</v>
       </c>
       <c r="AD32" s="13">
-        <f t="shared" si="2"/>
-        <v>0.42715348151449112</v>
+        <f t="shared" si="4"/>
+        <v>0.59160904308722295</v>
       </c>
     </row>
-    <row r="33" spans="32:38" x14ac:dyDescent="0.25">
-      <c r="AF33" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG33" s="40"/>
-      <c r="AH33" s="40"/>
+    <row r="33" spans="32:38">
+      <c r="AF33" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
     </row>
-    <row r="34" spans="32:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="32:38">
       <c r="AF34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AG34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH34" s="2" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="35" spans="32:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="32:38">
       <c r="AF35" s="2" t="s">
         <v>3</v>
       </c>
@@ -11332,10 +11287,10 @@
       </c>
       <c r="AH35" s="29">
         <f>VLOOKUP(AG35,$AG$5:$AH$16,2,FALSE)</f>
-        <v>0.94849486328991262</v>
+        <v>6.9249885552152719</v>
       </c>
     </row>
-    <row r="36" spans="32:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="32:38">
       <c r="AF36" s="2" t="s">
         <v>5</v>
       </c>
@@ -11343,35 +11298,35 @@
         <v>49</v>
       </c>
       <c r="AH36" s="29">
-        <f t="shared" ref="AH36:AH37" si="21">VLOOKUP(AG36,$AG$5:$AH$16,2,FALSE)</f>
-        <v>12.530550015213308</v>
+        <f t="shared" ref="AH36:AH37" si="23">VLOOKUP(AG36,$AG$5:$AH$16,2,FALSE)</f>
+        <v>3.9157114531409749</v>
       </c>
     </row>
-    <row r="37" spans="32:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="32:38">
       <c r="AF37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AG37" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH37" s="29">
-        <f t="shared" si="21"/>
-        <v>9.7475180662491159</v>
+        <f t="shared" si="23"/>
+        <v>10.751076833998354</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AL37" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="32:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="32:38">
       <c r="AF38" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AH38" s="29">
         <f>SUM(AH35:AH37)</f>
-        <v>23.226562944752338</v>
+        <v>21.591776842354601</v>
       </c>
       <c r="AL38" s="29">
         <f>Z11-Z10*LN(AL37/(1-AL37))</f>
@@ -11398,713 +11353,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C635621-8E9B-4213-85B6-5C41C8BB03A6}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G30"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="16384" width="12.6640625" style="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="41">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42">
-        <v>19</v>
-      </c>
-      <c r="C1" s="42">
-        <v>3</v>
-      </c>
-      <c r="D1" s="42">
-        <v>1</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42">
-        <v>20</v>
-      </c>
-      <c r="C2" s="42">
-        <v>1</v>
-      </c>
-      <c r="D2" s="42">
-        <v>1</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
-        <v>2</v>
-      </c>
-      <c r="B3" s="42">
-        <v>21</v>
-      </c>
-      <c r="C3" s="42">
-        <v>2</v>
-      </c>
-      <c r="D3" s="42">
-        <v>1</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
-        <v>3</v>
-      </c>
-      <c r="B4" s="42">
-        <v>22</v>
-      </c>
-      <c r="C4" s="42">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="42">
-        <v>1</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
-        <v>4</v>
-      </c>
-      <c r="B5" s="42">
-        <v>23</v>
-      </c>
-      <c r="C5" s="42">
-        <v>0</v>
-      </c>
-      <c r="D5" s="42">
-        <v>1</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
-        <v>5</v>
-      </c>
-      <c r="B6" s="42">
-        <v>24</v>
-      </c>
-      <c r="C6" s="42">
-        <v>5</v>
-      </c>
-      <c r="D6" s="42">
-        <v>0</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
-        <v>6</v>
-      </c>
-      <c r="B7" s="42">
-        <v>25</v>
-      </c>
-      <c r="C7" s="42">
-        <v>1</v>
-      </c>
-      <c r="D7" s="42">
-        <v>1</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
-        <v>7</v>
-      </c>
-      <c r="B8" s="42">
-        <v>26</v>
-      </c>
-      <c r="C8" s="42">
-        <v>2</v>
-      </c>
-      <c r="D8" s="42">
-        <v>1</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
-        <v>8</v>
-      </c>
-      <c r="B9" s="42">
-        <v>27</v>
-      </c>
-      <c r="C9" s="42">
-        <v>1</v>
-      </c>
-      <c r="D9" s="42">
-        <v>1</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
-        <v>9</v>
-      </c>
-      <c r="B10" s="42">
-        <v>28</v>
-      </c>
-      <c r="C10" s="42">
-        <v>2</v>
-      </c>
-      <c r="D10" s="42">
-        <v>0</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
-        <v>10</v>
-      </c>
-      <c r="B11" s="42">
-        <v>29</v>
-      </c>
-      <c r="C11" s="42">
-        <v>1</v>
-      </c>
-      <c r="D11" s="42">
-        <v>0</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
-        <v>11</v>
-      </c>
-      <c r="B12" s="42">
-        <v>30</v>
-      </c>
-      <c r="C12" s="42">
-        <v>2</v>
-      </c>
-      <c r="D12" s="42">
-        <v>0</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
-        <v>12</v>
-      </c>
-      <c r="B13" s="42">
-        <v>33</v>
-      </c>
-      <c r="C13" s="42">
-        <v>6</v>
-      </c>
-      <c r="D13" s="42">
-        <v>1</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
-        <v>13</v>
-      </c>
-      <c r="B14" s="42">
-        <v>34</v>
-      </c>
-      <c r="C14" s="42">
-        <v>5</v>
-      </c>
-      <c r="D14" s="42">
-        <v>0</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
-        <v>14</v>
-      </c>
-      <c r="B15" s="42">
-        <v>35</v>
-      </c>
-      <c r="C15" s="42">
-        <v>6</v>
-      </c>
-      <c r="D15" s="42">
-        <v>0</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
-        <v>15</v>
-      </c>
-      <c r="B16" s="42">
-        <v>36</v>
-      </c>
-      <c r="C16" s="42">
-        <v>5</v>
-      </c>
-      <c r="D16" s="42">
-        <v>0</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
-        <v>16</v>
-      </c>
-      <c r="B17" s="42">
-        <v>37</v>
-      </c>
-      <c r="C17" s="42">
-        <v>6</v>
-      </c>
-      <c r="D17" s="42">
-        <v>0</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
-        <v>17</v>
-      </c>
-      <c r="B18" s="42">
-        <v>38</v>
-      </c>
-      <c r="C18" s="42">
-        <v>5</v>
-      </c>
-      <c r="D18" s="42">
-        <v>0</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
-        <v>18</v>
-      </c>
-      <c r="B19" s="42">
-        <v>48</v>
-      </c>
-      <c r="C19" s="42">
-        <v>4</v>
-      </c>
-      <c r="D19" s="42">
-        <v>1</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
-        <v>19</v>
-      </c>
-      <c r="B20" s="42">
-        <v>49</v>
-      </c>
-      <c r="C20" s="42">
-        <v>3</v>
-      </c>
-      <c r="D20" s="42">
-        <v>1</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
-        <v>20</v>
-      </c>
-      <c r="B21" s="42">
-        <v>50</v>
-      </c>
-      <c r="C21" s="42">
-        <v>4</v>
-      </c>
-      <c r="D21" s="42">
-        <v>0</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
-        <v>21</v>
-      </c>
-      <c r="B22" s="42">
-        <v>51</v>
-      </c>
-      <c r="C22" s="42">
-        <v>3</v>
-      </c>
-      <c r="D22" s="42">
-        <v>0</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="41">
-        <v>22</v>
-      </c>
-      <c r="B23" s="42">
-        <v>52</v>
-      </c>
-      <c r="C23" s="42">
-        <v>4</v>
-      </c>
-      <c r="D23" s="42">
-        <v>0</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
-        <v>23</v>
-      </c>
-      <c r="B24" s="42">
-        <v>53</v>
-      </c>
-      <c r="C24" s="42">
-        <v>3</v>
-      </c>
-      <c r="D24" s="42">
-        <v>0</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="41">
-        <v>24</v>
-      </c>
-      <c r="B25" s="42">
-        <v>56</v>
-      </c>
-      <c r="C25" s="42">
-        <v>-1</v>
-      </c>
-      <c r="D25" s="42">
-        <v>1</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
-        <v>25</v>
-      </c>
-      <c r="B26" s="42">
-        <v>57</v>
-      </c>
-      <c r="C26" s="42">
-        <v>0</v>
-      </c>
-      <c r="D26" s="42">
-        <v>1</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
-        <v>26</v>
-      </c>
-      <c r="B27" s="42">
-        <v>58</v>
-      </c>
-      <c r="C27" s="42">
-        <v>-1</v>
-      </c>
-      <c r="D27" s="42">
-        <v>1</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="41">
-        <v>27</v>
-      </c>
-      <c r="B28" s="42">
-        <v>59</v>
-      </c>
-      <c r="C28" s="42">
-        <v>0</v>
-      </c>
-      <c r="D28" s="42">
-        <v>1</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
-        <v>28</v>
-      </c>
-      <c r="B29" s="42">
-        <v>60</v>
-      </c>
-      <c r="C29" s="42">
-        <v>-1</v>
-      </c>
-      <c r="D29" s="42">
-        <v>0</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
-        <v>29</v>
-      </c>
-      <c r="B30" s="42">
-        <v>61</v>
-      </c>
-      <c r="C30" s="42">
-        <v>0</v>
-      </c>
-      <c r="D30" s="42">
-        <v>0</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_science.xlsx
+++ b/data_science.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xushaojie/Documents/NutsCloud/data_science/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NutsCloud\data_science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8DCA21-9B02-6A4C-8EC1-69ACB3ADB649}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E57039-6313-46DE-B423-DD04BFBEF776}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{FE257B1E-4CF1-B449-A444-125C23C2FB09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="11460" activeTab="3" xr2:uid="{FE257B1E-4CF1-B449-A444-125C23C2FB09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="LR" sheetId="3" r:id="rId3"/>
+    <sheet name="XGBoost" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">XGBoost!$A$1:$M$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="88">
   <si>
     <t>分值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +354,18 @@
   <si>
     <t>bin5_[53, inf)</t>
   </si>
+  <si>
+    <t>叶节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -360,7 +376,7 @@
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -410,6 +426,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -425,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -652,6 +698,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +844,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2595,8 +2668,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="914400" y="5676900"/>
-          <a:ext cx="4762500" cy="5384800"/>
+          <a:off x="917575" y="5591175"/>
+          <a:ext cx="4775200" cy="5299075"/>
           <a:chOff x="914400" y="5676900"/>
           <a:chExt cx="4762500" cy="5384800"/>
         </a:xfrm>
@@ -2990,8 +3063,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1028700" y="5753100"/>
-          <a:ext cx="4584700" cy="5473700"/>
+          <a:off x="1031875" y="5664200"/>
+          <a:ext cx="4597400" cy="5387975"/>
           <a:chOff x="1028700" y="5715000"/>
           <a:chExt cx="4584700" cy="5473700"/>
         </a:xfrm>
@@ -7838,6 +7911,2480 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="椭圆 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB900055-8D66-4AC1-BF75-4C7DBD5B17F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038601" y="190500"/>
+          <a:ext cx="114300" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FCEE08-4C1B-48F1-AB7E-273846477F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705226" y="628650"/>
+          <a:ext cx="114300" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="椭圆 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80F3B96-6DC8-47E9-92F0-05F905857603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514851" y="638175"/>
+          <a:ext cx="114300" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="椭圆 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EC0A69-FC9C-4CFF-889B-E9FD1E5C601E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048126" y="1057275"/>
+          <a:ext cx="114300" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="椭圆 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BFF784-BEDE-4C2C-98EE-DE48FA2849F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267076" y="1076325"/>
+          <a:ext cx="114300" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="965072" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9420C7-2E76-4329-AB6C-D3DC037FDF90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="104775"/>
+          <a:ext cx="965072" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>样本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1,2,3,4,5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="538289" cy="474489"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A84A2D-37C4-4EB9-9F04-5917C73B3D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="1171575"/>
+          <a:ext cx="538289" cy="474489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>样本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>样本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="538289" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B605602A-D2F2-43CF-AA2C-3EEF5CCA36B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="1190625"/>
+          <a:ext cx="538289" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>样本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="538289" cy="474489"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC0CCA7-A051-4D11-9E31-CD6BD836A80B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="742950"/>
+          <a:ext cx="538289" cy="474489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>样本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>样本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AEC8F0-622D-47D9-ADC5-89E0C856F9E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3762376" y="304800"/>
+          <a:ext cx="333375" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB194623-C87A-42CB-AC30-394D0DCDADD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095751" y="304800"/>
+          <a:ext cx="476250" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>202337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92939</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8130D2E2-2F72-4FD8-842A-1974F03BF9B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="4"/>
+          <a:endCxn id="7" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3364637" y="742950"/>
+          <a:ext cx="397739" cy="350114"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>216765</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>73889</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1ED1E4B-0CE2-4B3C-9C54-004685572F5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="4"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762376" y="742950"/>
+          <a:ext cx="302489" cy="331064"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="文本框 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73742C7D-2138-40BE-8880-1DFA00B1C44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3133725" y="819150"/>
+          <a:ext cx="357021" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>w1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="文本框 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7423B08E-37C4-4D32-8C44-183B758A2A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="819150"/>
+          <a:ext cx="357021" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>w2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="文本框 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128E8352-594C-471D-A2CC-8F8BFD9EFCB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="419100"/>
+          <a:ext cx="357021" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>w3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="箭头: 右 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA32CC3-5480-4177-8832-8889899B4CE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="828675"/>
+          <a:ext cx="533400" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1594924" cy="462114"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="文本框 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417B76A0-66F4-4D7E-A101-6B4D7430E07A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2405062" y="2333625"/>
+              <a:ext cx="1594924" cy="462114"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>[</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑔</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>h</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>]</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="文本框 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417B76A0-66F4-4D7E-A101-6B4D7430E07A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2405062" y="2333625"/>
+              <a:ext cx="1594924" cy="462114"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑24</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^𝑛▒〖[𝑔_𝑖 𝑓_𝑡 (𝑥_𝑖 )+1/2 ℎ_𝑖 𝑓_𝑡 (𝑥_𝑖 )^2]〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2DAC30-1D19-4871-845D-C2C9A7726979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="2505075"/>
+          <a:ext cx="1333500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8632B62B-9C0E-483F-A7C4-0FC7D439C965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="2524125"/>
+          <a:ext cx="0" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1711687" cy="474489"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="文本框 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7DF672C-FC63-43B2-B803-51EABE600ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="2943225"/>
+          <a:ext cx="1711687" cy="474489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>先算单个样本的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>g,h,f(x)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>再算所有样本的和</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5792F1-91B1-4F5B-AEDE-BC588A7A7857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="5848350"/>
+          <a:ext cx="1352550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0175C823-9B8A-4C88-B615-4568D864DAA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638675" y="4657725"/>
+          <a:ext cx="0" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1952201" cy="514500"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="文本框 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B056F022-F71F-498D-A397-99F5B03CC994}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2090737" y="4381500"/>
+              <a:ext cx="1952201" cy="514500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>j</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val="["/>
+                            <m:endChr m:val="]"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:nary>
+                                  <m:naryPr>
+                                    <m:chr m:val="∑"/>
+                                    <m:supHide m:val="on"/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:naryPr>
+                                  <m:sub>
+                                    <m:r>
+                                      <m:rPr>
+                                        <m:brk m:alnAt="7"/>
+                                      </m:rPr>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>∈</m:t>
+                                    </m:r>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝐼</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑗</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                  </m:sub>
+                                  <m:sup/>
+                                  <m:e>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑔</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                  </m:e>
+                                </m:nary>
+                              </m:e>
+                            </m:d>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑤</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑗</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:nary>
+                                  <m:naryPr>
+                                    <m:chr m:val="∑"/>
+                                    <m:supHide m:val="on"/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:naryPr>
+                                  <m:sub>
+                                    <m:r>
+                                      <m:rPr>
+                                        <m:brk m:alnAt="7"/>
+                                      </m:rPr>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>∈</m:t>
+                                    </m:r>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝐼</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑗</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                  </m:sub>
+                                  <m:sup/>
+                                  <m:e>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>h</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                  </m:e>
+                                </m:nary>
+                              </m:e>
+                            </m:d>
+                            <m:sSubSup>
+                              <m:sSubSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑤</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑗</m:t>
+                                </m:r>
+                              </m:sub>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSubSup>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="文本框 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B056F022-F71F-498D-A397-99F5B03CC994}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2090737" y="4381500"/>
+              <a:ext cx="1952201" cy="514500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑24</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^𝑇▒[(∑8_(𝑖∈𝐼_𝑗)▒𝑔_𝑖 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑤_𝑗+(∑_(𝑖∈𝐼_𝑗)▒ℎ_𝑖 ) 𝑤_𝑗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ] </a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1763944" cy="474489"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="文本框 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77900206-804F-4E5D-88F4-E82EAF12CD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="5467350"/>
+          <a:ext cx="1763944" cy="474489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>先算单个叶节点的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>g,h,w</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>再算所有叶节点的和</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="箭头: 上下 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B271C5CA-F944-45B6-831C-90D0C70E8BF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962399" y="3771900"/>
+          <a:ext cx="485775" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>等价</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -8137,20 +10684,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9CF6BA-0295-7A45-B659-BC49B697865D}">
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="23.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1"/>
-    <row r="2" spans="2:11" ht="23" customHeight="1">
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8174,7 +10721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="19" customHeight="1">
+    <row r="3" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <f>B4+Sheet2!$Z$7</f>
         <v>80</v>
@@ -8204,7 +10751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="19" customHeight="1">
+    <row r="4" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <f>B5+Sheet2!$Z$7</f>
         <v>70</v>
@@ -8234,7 +10781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="19" customHeight="1">
+    <row r="5" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <f>B6+Sheet2!$Z$7</f>
         <v>60</v>
@@ -8264,7 +10811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="19" customHeight="1">
+    <row r="6" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
         <f>Sheet2!Z6</f>
         <v>50</v>
@@ -8294,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="19" customHeight="1">
+    <row r="7" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <f>B6-Sheet2!$Z$7</f>
         <v>40</v>
@@ -8324,7 +10871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="19" customHeight="1">
+    <row r="8" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <f>B7-Sheet2!$Z$7</f>
         <v>30</v>
@@ -8354,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="19" customHeight="1">
+    <row r="9" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <f>B8-Sheet2!$Z$7</f>
         <v>20</v>
@@ -8384,7 +10931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="19" customHeight="1" thickBot="1">
+    <row r="10" spans="2:11" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <f>B9-Sheet2!$Z$7</f>
         <v>10</v>
@@ -8414,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="19" customHeight="1">
+    <row r="11" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
       <c r="H11" s="2">
         <v>27</v>
@@ -8429,7 +10976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H12" s="2">
         <v>28</v>
       </c>
@@ -8443,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H13" s="2">
         <v>29</v>
       </c>
@@ -8457,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H14" s="2">
         <v>30</v>
       </c>
@@ -8471,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H15" s="2">
         <v>33</v>
       </c>
@@ -8485,7 +11032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H16" s="2">
         <v>34</v>
       </c>
@@ -8499,7 +11046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:11">
+    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H17" s="2">
         <v>35</v>
       </c>
@@ -8513,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:11">
+    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H18" s="2">
         <v>36</v>
       </c>
@@ -8527,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:11">
+    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H19" s="2">
         <v>37</v>
       </c>
@@ -8541,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="8:11">
+    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H20" s="2">
         <v>38</v>
       </c>
@@ -8555,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="8:11">
+    <row r="21" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H21" s="2">
         <v>48</v>
       </c>
@@ -8569,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="8:11">
+    <row r="22" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H22" s="2">
         <v>49</v>
       </c>
@@ -8583,7 +11130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="8:11">
+    <row r="23" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H23" s="2">
         <v>50</v>
       </c>
@@ -8597,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:11">
+    <row r="24" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H24" s="2">
         <v>51</v>
       </c>
@@ -8611,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="8:11">
+    <row r="25" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H25" s="2">
         <v>52</v>
       </c>
@@ -8625,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="8:11">
+    <row r="26" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H26" s="2">
         <v>53</v>
       </c>
@@ -8639,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="8:11">
+    <row r="27" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H27" s="2">
         <v>56</v>
       </c>
@@ -8653,7 +11200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="8:11">
+    <row r="28" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H28" s="2">
         <v>57</v>
       </c>
@@ -8667,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="8:11">
+    <row r="29" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H29" s="2">
         <v>58</v>
       </c>
@@ -8681,7 +11228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="8:11">
+    <row r="30" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H30" s="2">
         <v>59</v>
       </c>
@@ -8695,7 +11242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="8:11">
+    <row r="31" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H31" s="2">
         <v>60</v>
       </c>
@@ -8709,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="8:11">
+    <row r="32" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H32" s="2">
         <v>61</v>
       </c>
@@ -8738,41 +11285,41 @@
       <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" style="2"/>
+    <col min="1" max="5" width="10.875" style="2"/>
     <col min="6" max="6" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.875" style="2"/>
     <col min="12" max="12" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="10.83203125" style="2"/>
-    <col min="25" max="25" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="10.875" style="2"/>
+    <col min="25" max="25" width="18.625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="2"/>
-    <col min="29" max="29" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.875" style="2"/>
+    <col min="29" max="29" width="15.625" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.83203125" style="2"/>
-    <col min="32" max="32" width="11.1640625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="26.1640625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="10.875" style="2"/>
+    <col min="32" max="32" width="11.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="26.125" style="2" customWidth="1"/>
     <col min="34" max="34" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.83203125" style="2" customWidth="1"/>
-    <col min="39" max="39" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.875" style="2" customWidth="1"/>
+    <col min="39" max="39" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="10.83203125" style="2"/>
+    <col min="43" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8819,7 +11366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="17" thickBot="1">
+    <row r="3" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>19</v>
       </c>
@@ -8897,7 +11444,7 @@
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -8982,7 +11529,7 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>21</v>
       </c>
@@ -9064,7 +11611,7 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>22</v>
       </c>
@@ -9172,7 +11719,7 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>23</v>
       </c>
@@ -9278,7 +11825,7 @@
         <v>-9.4780757543125151</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>24</v>
       </c>
@@ -9314,7 +11861,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" ref="N8:N12" si="7">SUMIFS($I$3:$I$32,$F$3:$F$32,"="&amp;L8)</f>
+        <f t="shared" ref="N8:N11" si="7">SUMIFS($I$3:$I$32,$F$3:$F$32,"="&amp;L8)</f>
         <v>2</v>
       </c>
       <c r="O8" s="2">
@@ -9385,7 +11932,7 @@
         <v>-9.4780757543125151</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>25</v>
       </c>
@@ -9486,7 +12033,7 @@
         <v>2.4819242456874857</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>26</v>
       </c>
@@ -9595,7 +12142,7 @@
         <v>10.381504379723575</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>27</v>
       </c>
@@ -9702,7 +12249,7 @@
         <v>3.009277102074297</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>28</v>
       </c>
@@ -9801,7 +12348,7 @@
         <v>-16.931504379723574</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>29</v>
       </c>
@@ -9892,7 +12439,7 @@
       <c r="AI13" s="28"/>
       <c r="AJ13" s="28"/>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>30</v>
       </c>
@@ -9996,7 +12543,7 @@
         <v>-3.8260882787830828</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>33</v>
       </c>
@@ -10097,7 +12644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="17" thickBot="1">
+    <row r="16" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>34</v>
       </c>
@@ -10201,7 +12748,7 @@
         <v>3.8260882787830828</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>35</v>
       </c>
@@ -10290,7 +12837,7 @@
       </c>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>36</v>
       </c>
@@ -10351,7 +12898,7 @@
       </c>
       <c r="AG18" s="11"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>37</v>
       </c>
@@ -10427,7 +12974,7 @@
       <c r="AG19" s="36"/>
       <c r="AH19" s="36"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>38</v>
       </c>
@@ -10508,7 +13055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>48</v>
       </c>
@@ -10590,7 +13137,7 @@
         <v>16.403064309527785</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>49</v>
       </c>
@@ -10671,7 +13218,7 @@
         <v>23.856492934938846</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>50</v>
       </c>
@@ -10734,7 +13281,7 @@
         <v>10.751076833998354</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>51</v>
       </c>
@@ -10793,7 +13340,7 @@
         <v>51.010634078464989</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>52</v>
       </c>
@@ -10845,7 +13392,7 @@
         <v>0.38736950197670383</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>53</v>
       </c>
@@ -10902,7 +13449,7 @@
       <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>56</v>
       </c>
@@ -10963,7 +13510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>57</v>
       </c>
@@ -11025,7 +13572,7 @@
         <v>-8.5330871990972437</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>58</v>
       </c>
@@ -11087,7 +13634,7 @@
         <v>-3.456515824508303</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>59</v>
       </c>
@@ -11149,7 +13696,7 @@
         <v>3.0989002764321891</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>60</v>
       </c>
@@ -11208,7 +13755,7 @@
         <v>-8.8907027471733571</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>61</v>
       </c>
@@ -11260,14 +13807,14 @@
         <v>0.59160904308722295</v>
       </c>
     </row>
-    <row r="33" spans="32:38">
+    <row r="33" spans="32:38" x14ac:dyDescent="0.25">
       <c r="AF33" s="36" t="s">
         <v>66</v>
       </c>
       <c r="AG33" s="36"/>
       <c r="AH33" s="36"/>
     </row>
-    <row r="34" spans="32:38">
+    <row r="34" spans="32:38" x14ac:dyDescent="0.25">
       <c r="AF34" s="2" t="s">
         <v>61</v>
       </c>
@@ -11278,7 +13825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="32:38">
+    <row r="35" spans="32:38" x14ac:dyDescent="0.25">
       <c r="AF35" s="2" t="s">
         <v>3</v>
       </c>
@@ -11290,7 +13837,7 @@
         <v>6.9249885552152719</v>
       </c>
     </row>
-    <row r="36" spans="32:38">
+    <row r="36" spans="32:38" x14ac:dyDescent="0.25">
       <c r="AF36" s="2" t="s">
         <v>5</v>
       </c>
@@ -11302,7 +13849,7 @@
         <v>3.9157114531409749</v>
       </c>
     </row>
-    <row r="37" spans="32:38">
+    <row r="37" spans="32:38" x14ac:dyDescent="0.25">
       <c r="AF37" s="2" t="s">
         <v>7</v>
       </c>
@@ -11320,7 +13867,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="32:38">
+    <row r="38" spans="32:38" x14ac:dyDescent="0.25">
       <c r="AF38" s="2" t="s">
         <v>60</v>
       </c>
@@ -11359,13 +13906,248 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F088EEB5-1CDB-46FF-8267-F2232DD46836}">
+  <dimension ref="G3:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41">
+        <v>1</v>
+      </c>
+      <c r="I3" s="41">
+        <v>2</v>
+      </c>
+      <c r="J3" s="41">
+        <v>3</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="41">
+        <v>1</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="41">
+        <v>2</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="41">
+        <v>3</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="41">
+        <v>4</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="41">
+        <v>5</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="41"/>
+      <c r="H12" s="41">
+        <v>1</v>
+      </c>
+      <c r="I12" s="41">
+        <v>2</v>
+      </c>
+      <c r="J12" s="41">
+        <v>3</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="41">
+        <v>1</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="41">
+        <v>2</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="41">
+        <v>3</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="41">
+        <v>4</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="41">
+        <v>5</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G25" s="41"/>
+      <c r="H25" s="41">
+        <v>1</v>
+      </c>
+      <c r="I25" s="41">
+        <v>2</v>
+      </c>
+      <c r="J25" s="41">
+        <v>3</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G26" s="41">
+        <v>1</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G27" s="41">
+        <v>2</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G28" s="41">
+        <v>3</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G29" s="41">
+        <v>4</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G30" s="41">
+        <v>5</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G31" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>